--- a/biology/Zoologie/Armadillidium_album/Armadillidium_album.xlsx
+++ b/biology/Zoologie/Armadillidium_album/Armadillidium_album.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armadillidium album est une espèce de cloportes de la famille des Armadillidiidae. Elle vit dans le sable des zones littorales.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium album Dollfus, 1887[1].
-Armadillidium album a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium album Dollfus, 1887.
+Armadillidium album a pour synonymes :
 Haloarmadillidium dudichi Arcangeli, 1929
 Holoarmadillium dudichi Arcangeli, 1929</t>
         </is>
